--- a/Team-Data/2012-13/3-24-2012-13.xlsx
+++ b/Team-Data/2012-13/3-24-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" t="n">
         <v>31</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.551</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
@@ -693,19 +760,19 @@
         <v>8.9</v>
       </c>
       <c r="M2" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="N2" t="n">
         <v>0.379</v>
       </c>
       <c r="O2" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="P2" t="n">
         <v>19.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.709</v>
+        <v>0.708</v>
       </c>
       <c r="R2" t="n">
         <v>9.199999999999999</v>
@@ -717,7 +784,7 @@
         <v>40.8</v>
       </c>
       <c r="U2" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="V2" t="n">
         <v>15.1</v>
@@ -732,7 +799,7 @@
         <v>4.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="AA2" t="n">
         <v>18.7</v>
@@ -741,10 +808,10 @@
         <v>97.59999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -756,7 +823,7 @@
         <v>11</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -810,7 +877,7 @@
         <v>6</v>
       </c>
       <c r="AZ2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA2" t="n">
         <v>26</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-24-2012-13</t>
+          <t>2013-03-24</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>0.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
         <v>14</v>
@@ -941,25 +1008,25 @@
         <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ3" t="n">
         <v>27</v>
       </c>
       <c r="AK3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL3" t="n">
         <v>24</v>
       </c>
       <c r="AM3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP3" t="n">
         <v>20</v>
@@ -977,7 +1044,7 @@
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
         <v>12</v>
@@ -989,7 +1056,7 @@
         <v>24</v>
       </c>
       <c r="AY3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-24-2012-13</t>
+          <t>2013-03-24</t>
         </is>
       </c>
     </row>
@@ -1030,16 +1097,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E4" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F4" t="n">
         <v>29</v>
       </c>
       <c r="G4" t="n">
-        <v>0.586</v>
+        <v>0.58</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
@@ -1054,22 +1121,22 @@
         <v>0.445</v>
       </c>
       <c r="L4" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M4" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="N4" t="n">
-        <v>0.359</v>
+        <v>0.36</v>
       </c>
       <c r="O4" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="P4" t="n">
-        <v>23.6</v>
+        <v>23.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.74</v>
+        <v>0.737</v>
       </c>
       <c r="R4" t="n">
         <v>12.5</v>
@@ -1090,7 +1157,7 @@
         <v>7.1</v>
       </c>
       <c r="X4" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y4" t="n">
         <v>4.8</v>
@@ -1102,13 +1169,13 @@
         <v>21.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="AC4" t="n">
         <v>1.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
         <v>9</v>
@@ -1120,7 +1187,7 @@
         <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
@@ -1141,13 +1208,13 @@
         <v>14</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
         <v>8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR4" t="n">
         <v>6</v>
@@ -1168,10 +1235,10 @@
         <v>23</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ4" t="n">
         <v>2</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-24-2012-13</t>
+          <t>2013-03-24</t>
         </is>
       </c>
     </row>
@@ -1212,46 +1279,46 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E5" t="n">
         <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" t="n">
-        <v>0.229</v>
+        <v>0.232</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>34.1</v>
+        <v>34.2</v>
       </c>
       <c r="J5" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.419</v>
+        <v>0.42</v>
       </c>
       <c r="L5" t="n">
         <v>5.7</v>
       </c>
       <c r="M5" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.337</v>
+        <v>0.34</v>
       </c>
       <c r="O5" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P5" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.747</v>
+        <v>0.748</v>
       </c>
       <c r="R5" t="n">
         <v>11.3</v>
@@ -1263,7 +1330,7 @@
         <v>40.2</v>
       </c>
       <c r="U5" t="n">
-        <v>19</v>
+        <v>19.2</v>
       </c>
       <c r="V5" t="n">
         <v>13.8</v>
@@ -1281,16 +1348,16 @@
         <v>19.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.09999999999999</v>
+        <v>93.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-9.9</v>
+        <v>-9.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1302,7 +1369,7 @@
         <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AI5" t="n">
         <v>30</v>
@@ -1317,13 +1384,13 @@
         <v>26</v>
       </c>
       <c r="AM5" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN5" t="n">
         <v>26</v>
       </c>
-      <c r="AN5" t="n">
-        <v>27</v>
-      </c>
       <c r="AO5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP5" t="n">
         <v>4</v>
@@ -1335,7 +1402,7 @@
         <v>16</v>
       </c>
       <c r="AS5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT5" t="n">
         <v>27</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-24-2012-13</t>
+          <t>2013-03-24</t>
         </is>
       </c>
     </row>
@@ -1394,61 +1461,61 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" t="n">
         <v>31</v>
       </c>
       <c r="G6" t="n">
-        <v>0.551</v>
+        <v>0.544</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
       </c>
       <c r="I6" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J6" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M6" t="n">
-        <v>14.6</v>
+        <v>14.4</v>
       </c>
       <c r="N6" t="n">
-        <v>0.34</v>
+        <v>0.338</v>
       </c>
       <c r="O6" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P6" t="n">
         <v>21.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.783</v>
+        <v>0.784</v>
       </c>
       <c r="R6" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S6" t="n">
-        <v>30.7</v>
+        <v>30.6</v>
       </c>
       <c r="T6" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="U6" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="V6" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W6" t="n">
         <v>7.3</v>
@@ -1460,19 +1527,19 @@
         <v>5.8</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA6" t="n">
         <v>19.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.8</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1490,10 +1557,10 @@
         <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
@@ -1502,10 +1569,10 @@
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO6" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
@@ -1517,10 +1584,10 @@
         <v>5</v>
       </c>
       <c r="AS6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU6" t="n">
         <v>7</v>
@@ -1532,7 +1599,7 @@
         <v>22</v>
       </c>
       <c r="AX6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY6" t="n">
         <v>22</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-24-2012-13</t>
+          <t>2013-03-24</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>-4.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AE7" t="n">
         <v>28</v>
@@ -1672,7 +1739,7 @@
         <v>19</v>
       </c>
       <c r="AJ7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK7" t="n">
         <v>28</v>
@@ -1687,16 +1754,16 @@
         <v>22</v>
       </c>
       <c r="AO7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ7" t="n">
         <v>15</v>
       </c>
       <c r="AR7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS7" t="n">
         <v>30</v>
@@ -1720,7 +1787,7 @@
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-24-2012-13</t>
+          <t>2013-03-24</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" t="n">
         <v>36</v>
       </c>
       <c r="G8" t="n">
-        <v>0.486</v>
+        <v>0.478</v>
       </c>
       <c r="H8" t="n">
         <v>48.7</v>
@@ -1776,28 +1843,28 @@
         <v>38.7</v>
       </c>
       <c r="J8" t="n">
-        <v>83.90000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.461</v>
+        <v>0.46</v>
       </c>
       <c r="L8" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="M8" t="n">
         <v>20.1</v>
       </c>
       <c r="N8" t="n">
-        <v>0.376</v>
+        <v>0.374</v>
       </c>
       <c r="O8" t="n">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="P8" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.794</v>
+        <v>0.792</v>
       </c>
       <c r="R8" t="n">
         <v>9.300000000000001</v>
@@ -1806,19 +1873,19 @@
         <v>32.7</v>
       </c>
       <c r="T8" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U8" t="n">
         <v>23.1</v>
       </c>
       <c r="V8" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W8" t="n">
         <v>7.9</v>
       </c>
       <c r="X8" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y8" t="n">
         <v>4.1</v>
@@ -1827,25 +1894,25 @@
         <v>20.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>101.7</v>
+        <v>101.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="AD8" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AF8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH8" t="n">
         <v>3</v>
@@ -1854,10 +1921,10 @@
         <v>4</v>
       </c>
       <c r="AJ8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AK8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL8" t="n">
         <v>10</v>
@@ -1869,7 +1936,7 @@
         <v>6</v>
       </c>
       <c r="AO8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP8" t="n">
         <v>22</v>
@@ -1896,7 +1963,7 @@
         <v>17</v>
       </c>
       <c r="AX8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-24-2012-13</t>
+          <t>2013-03-24</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-24-2012-13</t>
+          <t>2013-03-24</t>
         </is>
       </c>
     </row>
@@ -2212,7 +2279,7 @@
         <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
         <v>23</v>
@@ -2221,7 +2288,7 @@
         <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL10" t="n">
         <v>23</v>
@@ -2233,7 +2300,7 @@
         <v>18</v>
       </c>
       <c r="AO10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP10" t="n">
         <v>14</v>
@@ -2254,13 +2321,13 @@
         <v>23</v>
       </c>
       <c r="AV10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW10" t="n">
         <v>26</v>
       </c>
       <c r="AX10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-24-2012-13</t>
+          <t>2013-03-24</t>
         </is>
       </c>
     </row>
@@ -2385,7 +2452,7 @@
         <v>1</v>
       </c>
       <c r="AE11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
         <v>10</v>
@@ -2394,7 +2461,7 @@
         <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
         <v>10</v>
@@ -2424,7 +2491,7 @@
         <v>3</v>
       </c>
       <c r="AR11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
@@ -2445,13 +2512,13 @@
         <v>26</v>
       </c>
       <c r="AY11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ11" t="n">
         <v>28</v>
       </c>
       <c r="BA11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB11" t="n">
         <v>9</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-24-2012-13</t>
+          <t>2013-03-24</t>
         </is>
       </c>
     </row>
@@ -2486,46 +2553,46 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F12" t="n">
         <v>31</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.551</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
       </c>
       <c r="I12" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J12" t="n">
-        <v>82.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.463</v>
+        <v>0.464</v>
       </c>
       <c r="L12" t="n">
         <v>10.7</v>
       </c>
       <c r="M12" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="N12" t="n">
         <v>0.37</v>
       </c>
       <c r="O12" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="P12" t="n">
         <v>25.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.755</v>
+        <v>0.754</v>
       </c>
       <c r="R12" t="n">
         <v>10.9</v>
@@ -2549,22 +2616,22 @@
         <v>4</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z12" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AA12" t="n">
         <v>20.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="AC12" t="n">
         <v>3.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
         <v>11</v>
@@ -2597,7 +2664,7 @@
         <v>7</v>
       </c>
       <c r="AO12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP12" t="n">
         <v>5</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-24-2012-13</t>
+          <t>2013-03-24</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>4.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2788,7 +2855,7 @@
         <v>18</v>
       </c>
       <c r="AR13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS13" t="n">
         <v>2</v>
@@ -2800,7 +2867,7 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW13" t="n">
         <v>25</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-24-2012-13</t>
+          <t>2013-03-24</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE14" t="n">
         <v>5</v>
@@ -2970,7 +3037,7 @@
         <v>27</v>
       </c>
       <c r="AR14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS14" t="n">
         <v>20</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-24-2012-13</t>
+          <t>2013-03-24</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>1</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
         <v>14</v>
@@ -3125,7 +3192,7 @@
         <v>28</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
         <v>22</v>
@@ -3170,10 +3237,10 @@
         <v>24</v>
       </c>
       <c r="AX15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ15" t="n">
         <v>3</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-24-2012-13</t>
+          <t>2013-03-24</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>4</v>
       </c>
       <c r="AD16" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
         <v>6</v>
@@ -3304,7 +3371,7 @@
         <v>6</v>
       </c>
       <c r="AH16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI16" t="n">
         <v>20</v>
@@ -3328,7 +3395,7 @@
         <v>21</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ16" t="n">
         <v>9</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-24-2012-13</t>
+          <t>2013-03-24</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F17" t="n">
         <v>14</v>
       </c>
       <c r="G17" t="n">
-        <v>0.797</v>
+        <v>0.794</v>
       </c>
       <c r="H17" t="n">
         <v>48.6</v>
@@ -3420,34 +3487,34 @@
         <v>0.496</v>
       </c>
       <c r="L17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M17" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="N17" t="n">
-        <v>0.389</v>
+        <v>0.388</v>
       </c>
       <c r="O17" t="n">
-        <v>17.7</v>
+        <v>17.6</v>
       </c>
       <c r="P17" t="n">
         <v>23.2</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.762</v>
+        <v>0.761</v>
       </c>
       <c r="R17" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="S17" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="T17" t="n">
-        <v>38.5</v>
+        <v>38.3</v>
       </c>
       <c r="U17" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="V17" t="n">
         <v>13.6</v>
@@ -3456,13 +3523,13 @@
         <v>8.9</v>
       </c>
       <c r="X17" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA17" t="n">
         <v>20.7</v>
@@ -3471,10 +3538,10 @@
         <v>103.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -3501,7 +3568,7 @@
         <v>7</v>
       </c>
       <c r="AM17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN17" t="n">
         <v>2</v>
@@ -3519,7 +3586,7 @@
         <v>28</v>
       </c>
       <c r="AS17" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3534,7 +3601,7 @@
         <v>3</v>
       </c>
       <c r="AX17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AY17" t="n">
         <v>1</v>
@@ -3549,7 +3616,7 @@
         <v>5</v>
       </c>
       <c r="BC17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-24-2012-13</t>
+          <t>2013-03-24</t>
         </is>
       </c>
     </row>
@@ -3578,55 +3645,55 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" t="n">
         <v>34</v>
       </c>
       <c r="F18" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" t="n">
-        <v>0.493</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
         <v>48.4</v>
       </c>
       <c r="I18" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J18" t="n">
-        <v>87.40000000000001</v>
+        <v>87.3</v>
       </c>
       <c r="K18" t="n">
         <v>0.436</v>
       </c>
       <c r="L18" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M18" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.356</v>
+        <v>0.358</v>
       </c>
       <c r="O18" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="P18" t="n">
         <v>21.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.737</v>
+        <v>0.739</v>
       </c>
       <c r="R18" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="S18" t="n">
         <v>31</v>
       </c>
       <c r="T18" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U18" t="n">
         <v>22.9</v>
@@ -3635,7 +3702,7 @@
         <v>14.1</v>
       </c>
       <c r="W18" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X18" t="n">
         <v>7.1</v>
@@ -3644,25 +3711,25 @@
         <v>4.4</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AB18" t="n">
         <v>98.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.5</v>
+        <v>-1.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
       </c>
       <c r="AF18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG18" t="n">
         <v>16</v>
@@ -3677,7 +3744,7 @@
         <v>1</v>
       </c>
       <c r="AK18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL18" t="n">
         <v>17</v>
@@ -3686,19 +3753,19 @@
         <v>18</v>
       </c>
       <c r="AN18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP18" t="n">
         <v>19</v>
       </c>
       <c r="AQ18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS18" t="n">
         <v>13</v>
@@ -3725,7 +3792,7 @@
         <v>9</v>
       </c>
       <c r="BA18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB18" t="n">
         <v>12</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-24-2012-13</t>
+          <t>2013-03-24</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" t="n">
         <v>24</v>
       </c>
       <c r="F19" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G19" t="n">
-        <v>0.353</v>
+        <v>0.358</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
@@ -3778,43 +3845,43 @@
         <v>35.6</v>
       </c>
       <c r="J19" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K19" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L19" t="n">
         <v>5.3</v>
       </c>
       <c r="M19" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="N19" t="n">
-        <v>0.294</v>
+        <v>0.292</v>
       </c>
       <c r="O19" t="n">
         <v>18.4</v>
       </c>
       <c r="P19" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q19" t="n">
         <v>0.732</v>
       </c>
       <c r="R19" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="S19" t="n">
         <v>30.3</v>
       </c>
       <c r="T19" t="n">
-        <v>42.6</v>
+        <v>42.7</v>
       </c>
       <c r="U19" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="V19" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W19" t="n">
         <v>8.1</v>
@@ -3829,16 +3896,16 @@
         <v>18.7</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AB19" t="n">
         <v>94.8</v>
       </c>
       <c r="AC19" t="n">
-        <v>-3</v>
+        <v>-2.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE19" t="n">
         <v>24</v>
@@ -3853,13 +3920,13 @@
         <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ19" t="n">
         <v>17</v>
       </c>
       <c r="AK19" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AL19" t="n">
         <v>28</v>
@@ -3880,7 +3947,7 @@
         <v>24</v>
       </c>
       <c r="AR19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS19" t="n">
         <v>17</v>
@@ -3892,7 +3959,7 @@
         <v>18</v>
       </c>
       <c r="AV19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW19" t="n">
         <v>13</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-24-2012-13</t>
+          <t>2013-03-24</t>
         </is>
       </c>
     </row>
@@ -4020,13 +4087,13 @@
         <v>-3.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE20" t="n">
         <v>24</v>
       </c>
       <c r="AF20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="n">
         <v>25</v>
@@ -4062,7 +4129,7 @@
         <v>10</v>
       </c>
       <c r="AR20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS20" t="n">
         <v>25</v>
@@ -4083,10 +4150,10 @@
         <v>8</v>
       </c>
       <c r="AY20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BA20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-24-2012-13</t>
+          <t>2013-03-24</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>3.2</v>
       </c>
       <c r="AD21" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE21" t="n">
         <v>8</v>
@@ -4259,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="AW21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4271,7 +4338,7 @@
         <v>13</v>
       </c>
       <c r="BA21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB21" t="n">
         <v>11</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-24-2012-13</t>
+          <t>2013-03-24</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E22" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" t="n">
         <v>19</v>
       </c>
       <c r="G22" t="n">
-        <v>0.732</v>
+        <v>0.729</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4324,7 +4391,7 @@
         <v>38.1</v>
       </c>
       <c r="J22" t="n">
-        <v>79.3</v>
+        <v>79.2</v>
       </c>
       <c r="K22" t="n">
         <v>0.481</v>
@@ -4333,19 +4400,19 @@
         <v>7.3</v>
       </c>
       <c r="M22" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N22" t="n">
         <v>0.377</v>
       </c>
       <c r="O22" t="n">
-        <v>22.6</v>
+        <v>22.8</v>
       </c>
       <c r="P22" t="n">
-        <v>27.4</v>
+        <v>27.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.826</v>
+        <v>0.827</v>
       </c>
       <c r="R22" t="n">
         <v>10.4</v>
@@ -4360,10 +4427,10 @@
         <v>21.5</v>
       </c>
       <c r="V22" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="W22" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X22" t="n">
         <v>7.5</v>
@@ -4372,19 +4439,19 @@
         <v>4.1</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA22" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>106.2</v>
+        <v>106.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE22" t="n">
         <v>3</v>
@@ -4396,7 +4463,7 @@
         <v>3</v>
       </c>
       <c r="AH22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI22" t="n">
         <v>7</v>
@@ -4408,10 +4475,10 @@
         <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN22" t="n">
         <v>5</v>
@@ -4429,10 +4496,10 @@
         <v>25</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU22" t="n">
         <v>20</v>
@@ -4441,7 +4508,7 @@
         <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-24-2012-13</t>
+          <t>2013-03-24</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
         <v>29</v>
@@ -4578,13 +4645,13 @@
         <v>29</v>
       </c>
       <c r="AH23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
         <v>9</v>
       </c>
       <c r="AJ23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK23" t="n">
         <v>12</v>
@@ -4593,7 +4660,7 @@
         <v>21</v>
       </c>
       <c r="AM23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN23" t="n">
         <v>28</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-24-2012-13</t>
+          <t>2013-03-24</t>
         </is>
       </c>
     </row>
@@ -4670,31 +4737,31 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F24" t="n">
         <v>42</v>
       </c>
       <c r="G24" t="n">
-        <v>0.391</v>
+        <v>0.382</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
       </c>
       <c r="I24" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J24" t="n">
-        <v>83.90000000000001</v>
+        <v>83.7</v>
       </c>
       <c r="K24" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L24" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M24" t="n">
         <v>17.4</v>
@@ -4706,22 +4773,22 @@
         <v>11.9</v>
       </c>
       <c r="P24" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="Q24" t="n">
         <v>0.718</v>
       </c>
       <c r="R24" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S24" t="n">
         <v>30.5</v>
       </c>
       <c r="T24" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U24" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="V24" t="n">
         <v>13.2</v>
@@ -4733,22 +4800,22 @@
         <v>4.9</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z24" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AA24" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>92.8</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.7</v>
+        <v>-3.9</v>
       </c>
       <c r="AD24" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
@@ -4763,13 +4830,13 @@
         <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
@@ -4790,7 +4857,7 @@
         <v>25</v>
       </c>
       <c r="AR24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS24" t="n">
         <v>16</v>
@@ -4799,7 +4866,7 @@
         <v>21</v>
       </c>
       <c r="AU24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
@@ -4820,7 +4887,7 @@
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC24" t="n">
         <v>24</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-24-2012-13</t>
+          <t>2013-03-24</t>
         </is>
       </c>
     </row>
@@ -4852,25 +4919,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E25" t="n">
         <v>23</v>
       </c>
       <c r="F25" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G25" t="n">
-        <v>0.324</v>
+        <v>0.329</v>
       </c>
       <c r="H25" t="n">
         <v>48.4</v>
       </c>
       <c r="I25" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J25" t="n">
-        <v>84.40000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K25" t="n">
         <v>0.44</v>
@@ -4879,7 +4946,7 @@
         <v>5.6</v>
       </c>
       <c r="M25" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="N25" t="n">
         <v>0.321</v>
@@ -4891,25 +4958,25 @@
         <v>19.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.735</v>
+        <v>0.736</v>
       </c>
       <c r="R25" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="S25" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T25" t="n">
-        <v>41.9</v>
+        <v>41.8</v>
       </c>
       <c r="U25" t="n">
         <v>22.1</v>
       </c>
       <c r="V25" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W25" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X25" t="n">
         <v>5.3</v>
@@ -4924,19 +4991,19 @@
         <v>18.4</v>
       </c>
       <c r="AB25" t="n">
-        <v>94.40000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="AC25" t="n">
         <v>-6.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>27</v>
       </c>
       <c r="AF25" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG25" t="n">
         <v>27</v>
@@ -4972,10 +5039,10 @@
         <v>23</v>
       </c>
       <c r="AR25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS25" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AT25" t="n">
         <v>17</v>
@@ -4993,7 +5060,7 @@
         <v>13</v>
       </c>
       <c r="AY25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ25" t="n">
         <v>22</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-24-2012-13</t>
+          <t>2013-03-24</t>
         </is>
       </c>
     </row>
@@ -5034,61 +5101,61 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" t="n">
         <v>33</v>
       </c>
       <c r="F26" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26" t="n">
-        <v>0.471</v>
+        <v>0.478</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>36.9</v>
+        <v>37</v>
       </c>
       <c r="J26" t="n">
         <v>82.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L26" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M26" t="n">
         <v>23.5</v>
       </c>
       <c r="N26" t="n">
-        <v>0.356</v>
+        <v>0.355</v>
       </c>
       <c r="O26" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P26" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="Q26" t="n">
         <v>0.78</v>
       </c>
       <c r="R26" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="S26" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T26" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U26" t="n">
         <v>21.7</v>
       </c>
       <c r="V26" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W26" t="n">
         <v>6.8</v>
@@ -5106,25 +5173,25 @@
         <v>18.9</v>
       </c>
       <c r="AB26" t="n">
-        <v>98.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>-1.4</v>
+        <v>-1.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
         <v>16</v>
@@ -5133,7 +5200,7 @@
         <v>11</v>
       </c>
       <c r="AK26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL26" t="n">
         <v>5</v>
@@ -5157,7 +5224,7 @@
         <v>17</v>
       </c>
       <c r="AS26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT26" t="n">
         <v>18</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-24-2012-13</t>
+          <t>2013-03-24</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27" t="n">
         <v>25</v>
       </c>
       <c r="F27" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" t="n">
-        <v>0.352</v>
+        <v>0.357</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
@@ -5234,7 +5301,7 @@
         <v>37.4</v>
       </c>
       <c r="J27" t="n">
-        <v>83.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K27" t="n">
         <v>0.447</v>
@@ -5246,16 +5313,16 @@
         <v>20</v>
       </c>
       <c r="N27" t="n">
-        <v>0.367</v>
+        <v>0.366</v>
       </c>
       <c r="O27" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="P27" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R27" t="n">
         <v>11.4</v>
@@ -5279,22 +5346,22 @@
         <v>4.3</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AA27" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC27" t="n">
-        <v>-5.1</v>
+        <v>-5</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
@@ -5306,7 +5373,7 @@
         <v>24</v>
       </c>
       <c r="AH27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI27" t="n">
         <v>12</v>
@@ -5318,7 +5385,7 @@
         <v>16</v>
       </c>
       <c r="AL27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM27" t="n">
         <v>12</v>
@@ -5327,19 +5394,19 @@
         <v>9</v>
       </c>
       <c r="AO27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ27" t="n">
         <v>11</v>
       </c>
       <c r="AR27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT27" t="n">
         <v>26</v>
@@ -5351,7 +5418,7 @@
         <v>17</v>
       </c>
       <c r="AW27" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AX27" t="n">
         <v>25</v>
@@ -5360,7 +5427,7 @@
         <v>27</v>
       </c>
       <c r="AZ27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA27" t="n">
         <v>13</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-24-2012-13</t>
+          <t>2013-03-24</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" t="n">
         <v>53</v>
       </c>
       <c r="F28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.757</v>
+        <v>0.768</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="J28" t="n">
         <v>81.3</v>
       </c>
       <c r="K28" t="n">
-        <v>0.487</v>
+        <v>0.488</v>
       </c>
       <c r="L28" t="n">
         <v>8.300000000000001</v>
@@ -5428,7 +5495,7 @@
         <v>21.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.381</v>
+        <v>0.379</v>
       </c>
       <c r="O28" t="n">
         <v>16.9</v>
@@ -5437,7 +5504,7 @@
         <v>21.4</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.791</v>
+        <v>0.79</v>
       </c>
       <c r="R28" t="n">
         <v>8</v>
@@ -5446,10 +5513,10 @@
         <v>33.1</v>
       </c>
       <c r="T28" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U28" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="V28" t="n">
         <v>14.7</v>
@@ -5461,7 +5528,7 @@
         <v>5.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z28" t="n">
         <v>17.4</v>
@@ -5470,13 +5537,13 @@
         <v>19.3</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD28" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5521,7 +5588,7 @@
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT28" t="n">
         <v>22</v>
@@ -5551,7 +5618,7 @@
         <v>4</v>
       </c>
       <c r="BC28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-24-2012-13</t>
+          <t>2013-03-24</t>
         </is>
       </c>
     </row>
@@ -5658,13 +5725,13 @@
         <v>-2.1</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG29" t="n">
         <v>21</v>
@@ -5685,13 +5752,13 @@
         <v>14</v>
       </c>
       <c r="AM29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN29" t="n">
         <v>25</v>
       </c>
       <c r="AO29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP29" t="n">
         <v>15</v>
@@ -5709,7 +5776,7 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV29" t="n">
         <v>4</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-24-2012-13</t>
+          <t>2013-03-24</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" t="n">
         <v>34</v>
       </c>
       <c r="F30" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30" t="n">
-        <v>0.486</v>
+        <v>0.493</v>
       </c>
       <c r="H30" t="n">
         <v>48.6</v>
       </c>
       <c r="I30" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J30" t="n">
         <v>81.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L30" t="n">
         <v>6</v>
@@ -5807,16 +5874,16 @@
         <v>12.4</v>
       </c>
       <c r="S30" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T30" t="n">
-        <v>42.4</v>
+        <v>42.5</v>
       </c>
       <c r="U30" t="n">
         <v>22.4</v>
       </c>
       <c r="V30" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W30" t="n">
         <v>8.300000000000001</v>
@@ -5834,13 +5901,13 @@
         <v>20.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>97.90000000000001</v>
+        <v>97.8</v>
       </c>
       <c r="AC30" t="n">
         <v>-0.9</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AE30" t="n">
         <v>16</v>
@@ -5855,13 +5922,13 @@
         <v>5</v>
       </c>
       <c r="AI30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ30" t="n">
         <v>14</v>
       </c>
       <c r="AK30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL30" t="n">
         <v>25</v>
@@ -5882,10 +5949,10 @@
         <v>13</v>
       </c>
       <c r="AR30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AT30" t="n">
         <v>14</v>
@@ -5894,10 +5961,10 @@
         <v>13</v>
       </c>
       <c r="AV30" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AW30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX30" t="n">
         <v>5</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-24-2012-13</t>
+          <t>2013-03-24</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-2.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
         <v>22</v>
       </c>
       <c r="AF31" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG31" t="n">
         <v>22</v>
@@ -6037,13 +6104,13 @@
         <v>8</v>
       </c>
       <c r="AI31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
         <v>18</v>
@@ -6064,7 +6131,7 @@
         <v>22</v>
       </c>
       <c r="AR31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS31" t="n">
         <v>7</v>
@@ -6079,7 +6146,7 @@
         <v>27</v>
       </c>
       <c r="AW31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX31" t="n">
         <v>23</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-24-2012-13</t>
+          <t>2013-03-24</t>
         </is>
       </c>
     </row>
